--- a/hex_keys.xlsx
+++ b/hex_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5977808cc4508b3c/Documents/GitHub/at-d578uvIII-handmic/AT-D578UV-software-mic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{3B9DB4DC-5069-46E5-BEF1-8EF741E7236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF4163FF-2B53-4ED8-B7B2-9B50F80EFCF8}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{3B9DB4DC-5069-46E5-BEF1-8EF741E7236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64BF47BD-1360-4641-A66C-79D4DBF9856B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5928" yWindow="4128" windowWidth="34560" windowHeight="18600" xr2:uid="{B3EFC837-0901-4571-A422-C1FED26752E2}"/>
+    <workbookView xWindow="-37890" yWindow="6285" windowWidth="25350" windowHeight="18840" xr2:uid="{B3EFC837-0901-4571-A422-C1FED26752E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
   <si>
     <t>TX</t>
   </si>
@@ -381,12 +381,6 @@
     <t>&amp;</t>
   </si>
   <si>
-    <t>53 01 00 00 00 00 01 01 00 10 00 00 00 00 00 06</t>
-  </si>
-  <si>
-    <t>53 01 00 00 01 00 00 01 00 10 00 00 00 00 00 06</t>
-  </si>
-  <si>
     <t>53 01 01 00 00 00 00 00 00 10 00 00 00 00 00 06</t>
   </si>
   <si>
@@ -394,13 +388,37 @@
   </si>
   <si>
     <t>TX (hex)</t>
+  </si>
+  <si>
+    <t>53 00 00 00 01 01 00 00 00 10 00 00 00 00 00 06</t>
+  </si>
+  <si>
+    <t>Queries for x06 response</t>
+  </si>
+  <si>
+    <t>53 00 00 00 01 01 00 01 00 10 00 00 00 00 00 06</t>
+  </si>
+  <si>
+    <t>41 00 00 00 00 00 01 06</t>
+  </si>
+  <si>
+    <t>41 00 00 00 00 01 00 06</t>
+  </si>
+  <si>
+    <t>41 00 00 01 00 00 00 06</t>
+  </si>
+  <si>
+    <t>41 00 01 00 00 00 00 06</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +430,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,6 +481,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E28F66-D68F-490A-A552-B51B5E702D38}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -891,7 +919,10 @@
         <v>\x41\x01\x00\x00\x00\x00\x00\x06</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -906,7 +937,7 @@
         <v>\x41\x00\x00\x00\x00\x00\x00\x06</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -921,7 +952,7 @@
         <v>\x41\x00\x01\x00\x01\x00\x00\x06</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -935,6 +966,9 @@
         <f t="array" ref="C10">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B10," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x01\x00\x00\x06</v>
       </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -947,6 +981,9 @@
         <f t="array" ref="C11">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B11," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x02\x00\x00\x06</v>
       </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -959,7 +996,9 @@
         <f t="array" ref="C12">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B12," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x02\x00\x00\x06</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -972,6 +1011,9 @@
         <f t="array" ref="C13">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B13," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x03\x00\x00\x06</v>
       </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -984,6 +1026,9 @@
         <f t="array" ref="C14">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B14," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x03\x00\x00\x06</v>
       </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -996,6 +1041,9 @@
         <f t="array" ref="C15">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B15," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x04\x00\x00\x06</v>
       </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1008,8 +1056,11 @@
         <f t="array" ref="C16">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B16," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x04\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1020,8 +1071,11 @@
         <f t="array" ref="C17">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B17," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x05\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1032,8 +1086,11 @@
         <f t="array" ref="C18">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B18," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x05\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1044,8 +1101,11 @@
         <f t="array" ref="C19">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B19," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x06\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1056,8 +1116,11 @@
         <f t="array" ref="C20">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B20," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x06\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1068,8 +1131,11 @@
         <f t="array" ref="C21">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B21," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x07\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1080,8 +1146,11 @@
         <f t="array" ref="C22">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B22," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x07\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1092,8 +1161,11 @@
         <f t="array" ref="C23">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B23," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x08\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1104,8 +1176,11 @@
         <f t="array" ref="C24">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B24," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x08\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1116,8 +1191,11 @@
         <f t="array" ref="C25">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B25," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x09\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1128,8 +1206,11 @@
         <f t="array" ref="C26">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B26," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x09\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1140,8 +1221,11 @@
         <f t="array" ref="C27">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B27," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x0a\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1152,8 +1236,11 @@
         <f t="array" ref="C28">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B28," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x0a\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1164,8 +1251,11 @@
         <f t="array" ref="C29">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B29," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x0b\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1176,8 +1266,11 @@
         <f t="array" ref="C30">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B30," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x0b\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1188,8 +1281,11 @@
         <f t="array" ref="C31">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B31," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x0c\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1200,8 +1296,11 @@
         <f t="array" ref="C32">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B32," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x0c\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1212,8 +1311,11 @@
         <f t="array" ref="C33">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B33," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x0d\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1224,8 +1326,11 @@
         <f t="array" ref="C34">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B34," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x0d\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1236,8 +1341,11 @@
         <f t="array" ref="C35">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B35," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x1a\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1248,16 +1356,22 @@
         <f t="array" ref="C36">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B36," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x1a\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1268,8 +1382,11 @@
         <f t="array" ref="C38">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B38," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x01\x1a\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1280,8 +1397,11 @@
         <f t="array" ref="C39">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B39," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x1b\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1292,16 +1412,22 @@
         <f t="array" ref="C40">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B40," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x1b\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1312,8 +1438,11 @@
         <f t="array" ref="C42">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B42," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x01\x1b\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1324,8 +1453,11 @@
         <f t="array" ref="C43">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B43," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x1c\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1336,8 +1468,11 @@
         <f t="array" ref="C44">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B44," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x1c\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1348,8 +1483,11 @@
         <f t="array" ref="C45">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B45," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x1c\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1360,8 +1498,11 @@
         <f t="array" ref="C46">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B46," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x01\x1c\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1372,8 +1513,11 @@
         <f t="array" ref="C47">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B47," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x01\x00\x1d\x00\x00\x06</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1384,6 +1528,9 @@
         <f t="array" ref="C48">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B48," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x00\x1d\x00\x00\x06</v>
       </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -1392,6 +1539,9 @@
       <c r="B49" t="s">
         <v>103</v>
       </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -1404,16 +1554,640 @@
         <f t="array" ref="C50">CONCATENATE("\x", SUBSTITUTE(_xlfn.TEXTJOIN("\x",TRUE,TEXT(MID(SUBSTITUTE(B50," ",""),(ROW($1:$8)-1)*2+1,2),"00")), " ", "\x"))</f>
         <v>\x41\x00\x00\x01\x1d\x00\x00\x06</v>
       </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,"""",B58,"""",",")</f>
+        <v>"41 00 00 00 00 00 01 06",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ref="C59:C122" si="0">_xlfn.TEXTJOIN("",TRUE,"""",B59,"""",",")</f>
+        <v>"41 00 00 00 00 01 00 06",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>"41 00 00 00 01 00 00 06",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>"41 00 00 01 00 00 00 06",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>"41 00 01 00 00 00 00 06",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>"41 01 00 00 00 00 00 06",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" t="str">
+        <f t="shared" si="0"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="str">
+        <f t="shared" ref="C123:C156" si="1">_xlfn.TEXTJOIN("",TRUE,"""",B123,"""",",")</f>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="str">
+        <f t="shared" si="1"/>
+        <v>"",</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
